--- a/data/pca/factorExposure/factorExposure_2009-12-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-12-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.003589063277152024</v>
+        <v>0.01695710215633886</v>
       </c>
       <c r="C2">
-        <v>0.008612729981406986</v>
+        <v>0.001060808901983306</v>
       </c>
       <c r="D2">
-        <v>0.003240197106269778</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.006951434154445384</v>
+      </c>
+      <c r="E2">
+        <v>-0.0001437323104297227</v>
+      </c>
+      <c r="F2">
+        <v>0.01114604289691019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.03083563895692839</v>
+        <v>0.09356548469551865</v>
       </c>
       <c r="C4">
-        <v>0.1193846152160424</v>
+        <v>0.01509897992192784</v>
       </c>
       <c r="D4">
-        <v>0.02699323678544864</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08429682965476673</v>
+      </c>
+      <c r="E4">
+        <v>0.02816192032053201</v>
+      </c>
+      <c r="F4">
+        <v>-0.03043386755979609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03933099963577669</v>
+        <v>0.1570359076830313</v>
       </c>
       <c r="C6">
-        <v>0.1138695163819837</v>
+        <v>0.02509971886466706</v>
       </c>
       <c r="D6">
-        <v>-0.03660304239676726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02106477151592875</v>
+      </c>
+      <c r="E6">
+        <v>0.009534075770501541</v>
+      </c>
+      <c r="F6">
+        <v>-0.04593813607569884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.01088562244195686</v>
+        <v>0.06243511362809559</v>
       </c>
       <c r="C7">
-        <v>0.0826164514445747</v>
+        <v>-0.001768999342578646</v>
       </c>
       <c r="D7">
-        <v>0.006522568754435423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05365248322317824</v>
+      </c>
+      <c r="E7">
+        <v>0.01018656014819343</v>
+      </c>
+      <c r="F7">
+        <v>-0.04752313258808361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.0008738230189827067</v>
+        <v>0.05700449370383597</v>
       </c>
       <c r="C8">
-        <v>0.07152644801508154</v>
+        <v>-0.01381542549123424</v>
       </c>
       <c r="D8">
-        <v>-0.02520724429739125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03460523441405868</v>
+      </c>
+      <c r="E8">
+        <v>0.0178050714948851</v>
+      </c>
+      <c r="F8">
+        <v>0.0278890219601746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.0257751249386162</v>
+        <v>0.07109809890668982</v>
       </c>
       <c r="C9">
-        <v>0.09865386358992946</v>
+        <v>0.01074849403649606</v>
       </c>
       <c r="D9">
-        <v>0.0305758576416901</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08621004759554751</v>
+      </c>
+      <c r="E9">
+        <v>0.02284749603585494</v>
+      </c>
+      <c r="F9">
+        <v>-0.04710072277867139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.01248136323743368</v>
+        <v>0.0962713357964787</v>
       </c>
       <c r="C10">
-        <v>0.02638373858724418</v>
+        <v>0.02105885270298028</v>
       </c>
       <c r="D10">
-        <v>-0.1452578121019356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1722342309533821</v>
+      </c>
+      <c r="E10">
+        <v>-0.03636425596592688</v>
+      </c>
+      <c r="F10">
+        <v>0.05384764596866608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.03029216689604484</v>
+        <v>0.08771647648295566</v>
       </c>
       <c r="C11">
-        <v>0.1034259733199648</v>
+        <v>0.0102606763553726</v>
       </c>
       <c r="D11">
-        <v>0.04186619659783247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1156099930025887</v>
+      </c>
+      <c r="E11">
+        <v>0.04547136190609653</v>
+      </c>
+      <c r="F11">
+        <v>-0.02133234171870298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02810036071520555</v>
+        <v>0.09201918576975697</v>
       </c>
       <c r="C12">
-        <v>0.1142751937344817</v>
+        <v>0.0073750580474005</v>
       </c>
       <c r="D12">
-        <v>0.03771965458128779</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1313077596908945</v>
+      </c>
+      <c r="E12">
+        <v>0.04716323889327172</v>
+      </c>
+      <c r="F12">
+        <v>-0.02554047659841563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.009910854227901457</v>
+        <v>0.04205323648016083</v>
       </c>
       <c r="C13">
-        <v>0.04392130648019915</v>
+        <v>0.002876638601658206</v>
       </c>
       <c r="D13">
-        <v>0.02185679877652304</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0523168551673324</v>
+      </c>
+      <c r="E13">
+        <v>-0.008136788217162934</v>
+      </c>
+      <c r="F13">
+        <v>-0.002464794977028417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01600595212685778</v>
+        <v>0.02285740940282847</v>
       </c>
       <c r="C14">
-        <v>0.02201105094498152</v>
+        <v>0.01372368713357636</v>
       </c>
       <c r="D14">
-        <v>-0.001517660108920096</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03293750336013597</v>
+      </c>
+      <c r="E14">
+        <v>0.01707966137836738</v>
+      </c>
+      <c r="F14">
+        <v>-0.01404237633005124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01053973616123432</v>
+        <v>0.03287566391427549</v>
       </c>
       <c r="C15">
-        <v>0.02705667885805451</v>
+        <v>0.004721061344891168</v>
       </c>
       <c r="D15">
-        <v>0.01472892123133243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.0451840656493573</v>
+      </c>
+      <c r="E15">
+        <v>0.006187816161918035</v>
+      </c>
+      <c r="F15">
+        <v>-0.02269481631423522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01977585321495124</v>
+        <v>0.07394454070888326</v>
       </c>
       <c r="C16">
-        <v>0.1086199879242814</v>
+        <v>0.001381417317997471</v>
       </c>
       <c r="D16">
-        <v>0.01954812901110001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1251688546883962</v>
+      </c>
+      <c r="E16">
+        <v>0.061323637572669</v>
+      </c>
+      <c r="F16">
+        <v>-0.02413812270058673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.031560420886977</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.00348370017670444</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01960967381313062</v>
+      </c>
+      <c r="E18">
+        <v>-0.007241231683843526</v>
+      </c>
+      <c r="F18">
+        <v>0.003388732466382069</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.0124028166287974</v>
+        <v>0.06095001710079597</v>
       </c>
       <c r="C20">
-        <v>0.06434912195313146</v>
+        <v>1.380469497421066e-05</v>
       </c>
       <c r="D20">
-        <v>0.007318451361095611</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07713373779381204</v>
+      </c>
+      <c r="E20">
+        <v>0.05535866666723144</v>
+      </c>
+      <c r="F20">
+        <v>-0.02303056476947857</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01380096402626442</v>
+        <v>0.04041881707059104</v>
       </c>
       <c r="C21">
-        <v>0.02577880371830841</v>
+        <v>0.00627486909888209</v>
       </c>
       <c r="D21">
-        <v>-0.007981295413326943</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03709721428358706</v>
+      </c>
+      <c r="E21">
+        <v>-0.005769528715531222</v>
+      </c>
+      <c r="F21">
+        <v>0.02414669037411491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.005433614650661983</v>
+        <v>0.04363268914087307</v>
       </c>
       <c r="C22">
-        <v>0.02942509154223093</v>
+        <v>0.0007135698929038698</v>
       </c>
       <c r="D22">
-        <v>-0.04328114407974659</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.003516154637688118</v>
+      </c>
+      <c r="E22">
+        <v>0.0294713875329785</v>
+      </c>
+      <c r="F22">
+        <v>0.0351790984647647</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.005420797571798204</v>
+        <v>0.04361828313191378</v>
       </c>
       <c r="C23">
-        <v>0.02935922752550757</v>
+        <v>0.000709281592410951</v>
       </c>
       <c r="D23">
-        <v>-0.04333055165342146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.003520918837734814</v>
+      </c>
+      <c r="E23">
+        <v>0.02967284544691166</v>
+      </c>
+      <c r="F23">
+        <v>0.03514238002862272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.01974526497249857</v>
+        <v>0.080105584431984</v>
       </c>
       <c r="C24">
-        <v>0.1100175737716664</v>
+        <v>0.001871205704079699</v>
       </c>
       <c r="D24">
-        <v>0.03313818554339278</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1199536756753672</v>
+      </c>
+      <c r="E24">
+        <v>0.04860473372769723</v>
+      </c>
+      <c r="F24">
+        <v>-0.02573420493896275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02555679519251764</v>
+        <v>0.08512061077866999</v>
       </c>
       <c r="C25">
-        <v>0.1120355515339921</v>
+        <v>0.004150974221244936</v>
       </c>
       <c r="D25">
-        <v>0.02746067742119209</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1087128967496619</v>
+      </c>
+      <c r="E25">
+        <v>0.03207386691968491</v>
+      </c>
+      <c r="F25">
+        <v>-0.02661180540631549</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02425992982587668</v>
+        <v>0.05767423865767451</v>
       </c>
       <c r="C26">
-        <v>0.04904712515688765</v>
+        <v>0.01421905240630053</v>
       </c>
       <c r="D26">
-        <v>-0.0154252592879465</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0400425808547133</v>
+      </c>
+      <c r="E26">
+        <v>0.02760288795139393</v>
+      </c>
+      <c r="F26">
+        <v>0.009368458335958259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.006390725630394909</v>
+        <v>0.1407919420708722</v>
       </c>
       <c r="C28">
-        <v>0.03469856343902814</v>
+        <v>0.02034081393371134</v>
       </c>
       <c r="D28">
-        <v>-0.2150881347819376</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2622307377117536</v>
+      </c>
+      <c r="E28">
+        <v>-0.06709966784702907</v>
+      </c>
+      <c r="F28">
+        <v>-0.00969855748771694</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01308739053680902</v>
+        <v>0.02771252119389703</v>
       </c>
       <c r="C29">
-        <v>0.02821498141071374</v>
+        <v>0.008098010982859692</v>
       </c>
       <c r="D29">
-        <v>-0.008853737628469463</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0319064518586572</v>
+      </c>
+      <c r="E29">
+        <v>0.01114489482301291</v>
+      </c>
+      <c r="F29">
+        <v>0.01054967605102168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.01583478977791075</v>
+        <v>0.06116554287478713</v>
       </c>
       <c r="C30">
-        <v>0.1284907731266038</v>
+        <v>0.003056567025075397</v>
       </c>
       <c r="D30">
-        <v>0.02863636153552384</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08905984947027616</v>
+      </c>
+      <c r="E30">
+        <v>0.01921850605433336</v>
+      </c>
+      <c r="F30">
+        <v>-0.08348719497533795</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02173625968771001</v>
+        <v>0.04998203071497528</v>
       </c>
       <c r="C31">
-        <v>0.03543574424055791</v>
+        <v>0.01509510506131067</v>
       </c>
       <c r="D31">
-        <v>0.00290148160543823</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0251712952338415</v>
+      </c>
+      <c r="E31">
+        <v>0.02752621480672832</v>
+      </c>
+      <c r="F31">
+        <v>0.002535009143846172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.008181654612863009</v>
+        <v>0.05013946206246998</v>
       </c>
       <c r="C32">
-        <v>0.06018192536584197</v>
+        <v>-0.001725433083984975</v>
       </c>
       <c r="D32">
-        <v>-0.02546754592705323</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03590787334790619</v>
+      </c>
+      <c r="E32">
+        <v>0.03049302410557299</v>
+      </c>
+      <c r="F32">
+        <v>-0.002957575709661894</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02267509672234073</v>
+        <v>0.08946042594549021</v>
       </c>
       <c r="C33">
-        <v>0.1121250075771</v>
+        <v>0.007492072238375119</v>
       </c>
       <c r="D33">
-        <v>0.03346886192892971</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.09890714895222934</v>
+      </c>
+      <c r="E33">
+        <v>0.04375504593971195</v>
+      </c>
+      <c r="F33">
+        <v>-0.03537713835446507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02746776519342659</v>
+        <v>0.06833851453725154</v>
       </c>
       <c r="C34">
-        <v>0.09432337665451809</v>
+        <v>0.0104896660976948</v>
       </c>
       <c r="D34">
-        <v>0.01674702122471927</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1066749711948152</v>
+      </c>
+      <c r="E34">
+        <v>0.03436002846099379</v>
+      </c>
+      <c r="F34">
+        <v>-0.03360521222566641</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.004105659481397245</v>
+        <v>0.02418326806575092</v>
       </c>
       <c r="C35">
-        <v>0.01481857810067086</v>
+        <v>0.002385668541052976</v>
       </c>
       <c r="D35">
-        <v>0.0009428640619424666</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01160805207474427</v>
+      </c>
+      <c r="E35">
+        <v>0.011610636667153</v>
+      </c>
+      <c r="F35">
+        <v>-0.0008532991529353946</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01086140772625957</v>
+        <v>0.02746496867462963</v>
       </c>
       <c r="C36">
-        <v>0.02675209551836476</v>
+        <v>0.006877618081056311</v>
       </c>
       <c r="D36">
-        <v>0.01053265351378537</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03960408475058376</v>
+      </c>
+      <c r="E36">
+        <v>0.01597547555386946</v>
+      </c>
+      <c r="F36">
+        <v>-0.01497673692433005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.000377679752973176</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-4.232079002662323e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.0005543752987016659</v>
+      </c>
+      <c r="E37">
+        <v>-0.0004616165249978583</v>
+      </c>
+      <c r="F37">
+        <v>-0.0006748977591477135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0005877852496801257</v>
+        <v>0.001326557556629997</v>
       </c>
       <c r="C38">
-        <v>0.003839243411493023</v>
+        <v>0.0001959975438369327</v>
       </c>
       <c r="D38">
-        <v>-0.00168812903981336</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0004379953097447664</v>
+      </c>
+      <c r="E38">
+        <v>0.0007835955510291781</v>
+      </c>
+      <c r="F38">
+        <v>0.0006602283033973801</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04293233601292942</v>
+        <v>0.105488239075639</v>
       </c>
       <c r="C39">
-        <v>0.163860048250552</v>
+        <v>0.01541920042889415</v>
       </c>
       <c r="D39">
-        <v>0.06370859686104238</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1537696086220638</v>
+      </c>
+      <c r="E39">
+        <v>0.05885167309340816</v>
+      </c>
+      <c r="F39">
+        <v>-0.02828915895744073</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01100348695406199</v>
+        <v>0.04104901507097735</v>
       </c>
       <c r="C40">
-        <v>0.0133081691311961</v>
+        <v>0.006656074733561347</v>
       </c>
       <c r="D40">
-        <v>-0.006576988942393364</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03242530278726514</v>
+      </c>
+      <c r="E40">
+        <v>0.003443947223614185</v>
+      </c>
+      <c r="F40">
+        <v>0.01562541917063531</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01143189876191066</v>
+        <v>0.02765758454709442</v>
       </c>
       <c r="C41">
-        <v>0.01878727224216484</v>
+        <v>0.006642645829266922</v>
       </c>
       <c r="D41">
-        <v>-0.01297345191343598</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0108998359756883</v>
+      </c>
+      <c r="E41">
+        <v>0.01261849834145511</v>
+      </c>
+      <c r="F41">
+        <v>0.00665434422705962</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01342174494906612</v>
+        <v>0.04058827075603539</v>
       </c>
       <c r="C43">
-        <v>0.02699263160571651</v>
+        <v>0.006653224179750496</v>
       </c>
       <c r="D43">
-        <v>-0.008284965700354906</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02040068951971266</v>
+      </c>
+      <c r="E43">
+        <v>0.02487514999605418</v>
+      </c>
+      <c r="F43">
+        <v>0.01280859811501837</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.03189415940656821</v>
+        <v>0.08033709499698877</v>
       </c>
       <c r="C44">
-        <v>0.1274463937964873</v>
+        <v>0.01970757648417458</v>
       </c>
       <c r="D44">
-        <v>0.01522121474725475</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09843383373757615</v>
+      </c>
+      <c r="E44">
+        <v>0.06596183673141798</v>
+      </c>
+      <c r="F44">
+        <v>-0.1567068605917434</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005354016353087218</v>
+        <v>0.02353385183833307</v>
       </c>
       <c r="C46">
-        <v>0.005770920787544537</v>
+        <v>0.00347352200625814</v>
       </c>
       <c r="D46">
-        <v>-0.01673066345227623</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01296397953490871</v>
+      </c>
+      <c r="E46">
+        <v>0.0222219170003928</v>
+      </c>
+      <c r="F46">
+        <v>0.00500091710138898</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01097720034114368</v>
+        <v>0.05134883317531651</v>
       </c>
       <c r="C47">
-        <v>0.03176318283365479</v>
+        <v>0.003277621857314289</v>
       </c>
       <c r="D47">
-        <v>-0.02791863483580525</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01420758208975428</v>
+      </c>
+      <c r="E47">
+        <v>0.02359079713417057</v>
+      </c>
+      <c r="F47">
+        <v>0.03389606743256045</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01274236264547187</v>
+        <v>0.04975809621294489</v>
       </c>
       <c r="C48">
-        <v>0.04982553396374415</v>
+        <v>0.002140739549349877</v>
       </c>
       <c r="D48">
-        <v>0.01061548999296366</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.04990104805297051</v>
+      </c>
+      <c r="E48">
+        <v>-0.006594068925444341</v>
+      </c>
+      <c r="F48">
+        <v>-0.009575201338503744</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.03987154898154752</v>
+        <v>0.1996725678941881</v>
       </c>
       <c r="C49">
-        <v>0.2185327582521927</v>
+        <v>0.01837353837914904</v>
       </c>
       <c r="D49">
-        <v>-0.06286040573639425</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.006760312569229009</v>
+      </c>
+      <c r="E49">
+        <v>0.03161580862929401</v>
+      </c>
+      <c r="F49">
+        <v>-0.03931283983807544</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01860012620892824</v>
+        <v>0.05074753499272288</v>
       </c>
       <c r="C50">
-        <v>0.03968303620373435</v>
+        <v>0.01110312188254201</v>
       </c>
       <c r="D50">
-        <v>-0.005320919022199171</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02363755151504813</v>
+      </c>
+      <c r="E50">
+        <v>0.02932187450210007</v>
+      </c>
+      <c r="F50">
+        <v>-0.008836714410962242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0004280562899399788</v>
+        <v>0.0008525280301196397</v>
       </c>
       <c r="C51">
-        <v>0.001964352679086929</v>
+        <v>0.0002358141955717608</v>
       </c>
       <c r="D51">
-        <v>-0.002963506185575857</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0006473844621628585</v>
+      </c>
+      <c r="E51">
+        <v>-2.274266322736274e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.002687837664457951</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.03205631536657691</v>
+        <v>0.1461331841128031</v>
       </c>
       <c r="C52">
-        <v>0.1499341758149933</v>
+        <v>0.01524246980923075</v>
       </c>
       <c r="D52">
-        <v>0.02251736438787796</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04520687029336994</v>
+      </c>
+      <c r="E52">
+        <v>0.02022479427653077</v>
+      </c>
+      <c r="F52">
+        <v>-0.04060460503593705</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.03294297692074421</v>
+        <v>0.1724985167701159</v>
       </c>
       <c r="C53">
-        <v>0.171721388866921</v>
+        <v>0.01857436569858981</v>
       </c>
       <c r="D53">
-        <v>-0.007989990320653256</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.006068178142939731</v>
+      </c>
+      <c r="E53">
+        <v>0.03134625425590181</v>
+      </c>
+      <c r="F53">
+        <v>-0.07215584639326832</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01652740136715006</v>
+        <v>0.02207225433573962</v>
       </c>
       <c r="C54">
-        <v>0.04017956617905395</v>
+        <v>0.01229921520058045</v>
       </c>
       <c r="D54">
-        <v>-0.01294159957758778</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03428989352341313</v>
+      </c>
+      <c r="E54">
+        <v>0.01867887345413254</v>
+      </c>
+      <c r="F54">
+        <v>0.003725325060461491</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02541531980011922</v>
+        <v>0.1138522235304647</v>
       </c>
       <c r="C55">
-        <v>0.08663901221694606</v>
+        <v>0.01616983270898681</v>
       </c>
       <c r="D55">
-        <v>0.002978319691908336</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01010234891355809</v>
+      </c>
+      <c r="E55">
+        <v>0.02793243026409676</v>
+      </c>
+      <c r="F55">
+        <v>-0.04651933333692554</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03407009889847128</v>
+        <v>0.1770002862847439</v>
       </c>
       <c r="C56">
-        <v>0.1600478767933819</v>
+        <v>0.01599078684571813</v>
       </c>
       <c r="D56">
-        <v>-0.02024207687459348</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001486836527301585</v>
+      </c>
+      <c r="E56">
+        <v>0.0356820511453779</v>
+      </c>
+      <c r="F56">
+        <v>-0.05058410240380124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01305482832402502</v>
+        <v>0.04641965877744439</v>
       </c>
       <c r="C58">
-        <v>0.05024905321868167</v>
+        <v>0.000447939239921596</v>
       </c>
       <c r="D58">
-        <v>0.009949667007371677</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.06710768288729065</v>
+      </c>
+      <c r="E58">
+        <v>0.02733882921404558</v>
+      </c>
+      <c r="F58">
+        <v>0.0363320292890157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.0156442014600342</v>
+        <v>0.1679828547063393</v>
       </c>
       <c r="C59">
-        <v>0.09026462014593649</v>
+        <v>0.02076352646052356</v>
       </c>
       <c r="D59">
-        <v>-0.23382045537717</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2170128824360698</v>
+      </c>
+      <c r="E59">
+        <v>-0.04501099789988117</v>
+      </c>
+      <c r="F59">
+        <v>0.03378829138892337</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.02928394620052949</v>
+        <v>0.2311373062451023</v>
       </c>
       <c r="C60">
-        <v>0.2744105220820597</v>
+        <v>-0.003167691235630016</v>
       </c>
       <c r="D60">
-        <v>0.006669451750864563</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04263124134499893</v>
+      </c>
+      <c r="E60">
+        <v>0.01115132626553645</v>
+      </c>
+      <c r="F60">
+        <v>0.006238441627910966</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03060943182788818</v>
+        <v>0.08210765609109412</v>
       </c>
       <c r="C61">
-        <v>0.1236327748414964</v>
+        <v>0.01145802224719249</v>
       </c>
       <c r="D61">
-        <v>0.02498942320426129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1161591683128563</v>
+      </c>
+      <c r="E61">
+        <v>0.03843918411269173</v>
+      </c>
+      <c r="F61">
+        <v>-0.01127436316430656</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.03633487074628345</v>
+        <v>0.1704997806044543</v>
       </c>
       <c r="C62">
-        <v>0.1623669172404978</v>
+        <v>0.01937404067582196</v>
       </c>
       <c r="D62">
-        <v>-0.01995408970195585</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.006752350573998714</v>
+      </c>
+      <c r="E62">
+        <v>0.03470847446613051</v>
+      </c>
+      <c r="F62">
+        <v>-0.033241293627299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01215879546515175</v>
+        <v>0.04567037659690442</v>
       </c>
       <c r="C63">
-        <v>0.05263093333009692</v>
+        <v>0.001835020153558072</v>
       </c>
       <c r="D63">
-        <v>0.01084183832176181</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05805592791687916</v>
+      </c>
+      <c r="E63">
+        <v>0.02130360648211082</v>
+      </c>
+      <c r="F63">
+        <v>-0.005966102239133657</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02469791090043103</v>
+        <v>0.1107737367406379</v>
       </c>
       <c r="C64">
-        <v>0.09646415638131695</v>
+        <v>0.01090661061126166</v>
       </c>
       <c r="D64">
-        <v>-0.005791892911691591</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04273215355015798</v>
+      </c>
+      <c r="E64">
+        <v>0.02388201049931302</v>
+      </c>
+      <c r="F64">
+        <v>-0.025661342473566</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.03983941731143658</v>
+        <v>0.1479703144324761</v>
       </c>
       <c r="C65">
-        <v>0.1063050071542474</v>
+        <v>0.03251853751361473</v>
       </c>
       <c r="D65">
-        <v>-0.01909004009782445</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04152759601021081</v>
+      </c>
+      <c r="E65">
+        <v>0.002774486636287724</v>
+      </c>
+      <c r="F65">
+        <v>-0.03940831678066035</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.04163395052080335</v>
+        <v>0.124915873402673</v>
       </c>
       <c r="C66">
-        <v>0.1925636836164387</v>
+        <v>0.01346328281245175</v>
       </c>
       <c r="D66">
-        <v>0.05099129723795751</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1424836973776315</v>
+      </c>
+      <c r="E66">
+        <v>0.06647204640854777</v>
+      </c>
+      <c r="F66">
+        <v>-0.03075056909375934</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01484233119018457</v>
+        <v>0.06065424925359948</v>
       </c>
       <c r="C67">
-        <v>0.07435474129670208</v>
+        <v>0.002993994145939466</v>
       </c>
       <c r="D67">
-        <v>0.005223133271294022</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05562998770480269</v>
+      </c>
+      <c r="E67">
+        <v>0.01731242255694191</v>
+      </c>
+      <c r="F67">
+        <v>0.03411551552348684</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01720818714667797</v>
+        <v>0.1169187494315057</v>
       </c>
       <c r="C68">
-        <v>0.02430814919524382</v>
+        <v>0.03137223372896605</v>
       </c>
       <c r="D68">
-        <v>-0.2035747291276296</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.261138731142692</v>
+      </c>
+      <c r="E68">
+        <v>-0.08632010402102561</v>
+      </c>
+      <c r="F68">
+        <v>-0.005383803333885264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.005980485610715692</v>
+        <v>0.03979159692900347</v>
       </c>
       <c r="C69">
-        <v>0.03330775411252721</v>
+        <v>0.001294724129086891</v>
       </c>
       <c r="D69">
-        <v>-0.004809364662670831</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007425394083104111</v>
+      </c>
+      <c r="E69">
+        <v>0.02307186480429345</v>
+      </c>
+      <c r="F69">
+        <v>0.001000646270755173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.0004509420004644504</v>
+        <v>0.06579451599391531</v>
       </c>
       <c r="C70">
-        <v>0.03578566708132437</v>
+        <v>-0.02811108071115677</v>
       </c>
       <c r="D70">
-        <v>-0.004289030408143621</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02483580528879059</v>
+      </c>
+      <c r="E70">
+        <v>-0.03994865591365947</v>
+      </c>
+      <c r="F70">
+        <v>0.1857421223557921</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.02094815030054182</v>
+        <v>0.1368315574051325</v>
       </c>
       <c r="C71">
-        <v>0.03095232192448933</v>
+        <v>0.0357244736572879</v>
       </c>
       <c r="D71">
-        <v>-0.216345616358705</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2733776941718154</v>
+      </c>
+      <c r="E71">
+        <v>-0.09583885720886812</v>
+      </c>
+      <c r="F71">
+        <v>-0.01224091078057143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.0367600836007892</v>
+        <v>0.1419895190198305</v>
       </c>
       <c r="C72">
-        <v>0.1183940595959565</v>
+        <v>0.02576504336217161</v>
       </c>
       <c r="D72">
-        <v>-0.03358778522630733</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0008524018483056396</v>
+      </c>
+      <c r="E72">
+        <v>0.03842108982306289</v>
+      </c>
+      <c r="F72">
+        <v>-0.03431813031178013</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.03476579346564804</v>
+        <v>0.2004312058407129</v>
       </c>
       <c r="C73">
-        <v>0.212752794088378</v>
+        <v>0.01197655466496292</v>
       </c>
       <c r="D73">
-        <v>-0.04914545727342232</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01869557644771417</v>
+      </c>
+      <c r="E73">
+        <v>0.06499835633450471</v>
+      </c>
+      <c r="F73">
+        <v>-0.03872844085197181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.02103037607986029</v>
+        <v>0.09485822358081253</v>
       </c>
       <c r="C74">
-        <v>0.1073588363236195</v>
+        <v>0.01297985223801579</v>
       </c>
       <c r="D74">
-        <v>-0.01869562647189179</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01775224198186314</v>
+      </c>
+      <c r="E74">
+        <v>0.04426268594778278</v>
+      </c>
+      <c r="F74">
+        <v>-0.05580906770473765</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.04247174750994862</v>
+        <v>0.128292850583087</v>
       </c>
       <c r="C75">
-        <v>0.1332621075738731</v>
+        <v>0.0274023162959685</v>
       </c>
       <c r="D75">
-        <v>-0.02598881728787003</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03072598489017433</v>
+      </c>
+      <c r="E75">
+        <v>0.05804818488627932</v>
+      </c>
+      <c r="F75">
+        <v>-0.01751058456345124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0003108119365222925</v>
+        <v>0.0007940695366159947</v>
       </c>
       <c r="C76">
-        <v>0.002399106005060032</v>
+        <v>0.0002279035854717557</v>
       </c>
       <c r="D76">
-        <v>-0.003489616933866227</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0008418662162880987</v>
+      </c>
+      <c r="E76">
+        <v>2.464270306155202e-05</v>
+      </c>
+      <c r="F76">
+        <v>-0.0004762666495734934</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.0241288816383245</v>
+        <v>0.08554123771476324</v>
       </c>
       <c r="C77">
-        <v>0.0962920480338353</v>
+        <v>0.007741547173598755</v>
       </c>
       <c r="D77">
-        <v>0.06940662727847439</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1141288224188423</v>
+      </c>
+      <c r="E77">
+        <v>0.03893289139020328</v>
+      </c>
+      <c r="F77">
+        <v>-0.03272269362742899</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.05468849398857608</v>
+        <v>0.09984189257334009</v>
       </c>
       <c r="C78">
-        <v>0.1382720641641113</v>
+        <v>0.03902560011373011</v>
       </c>
       <c r="D78">
-        <v>-0.004097643547836893</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1163612134125695</v>
+      </c>
+      <c r="E78">
+        <v>0.07423109274388935</v>
+      </c>
+      <c r="F78">
+        <v>-0.04554758353315369</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03752039666750059</v>
+        <v>0.1647497468251861</v>
       </c>
       <c r="C79">
-        <v>0.1438370133907099</v>
+        <v>0.02206567211028013</v>
       </c>
       <c r="D79">
-        <v>-0.02721747296912126</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01571204222495398</v>
+      </c>
+      <c r="E79">
+        <v>0.04654591566256885</v>
+      </c>
+      <c r="F79">
+        <v>-0.01034799211038799</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.00934015191452949</v>
+        <v>0.08244670378122625</v>
       </c>
       <c r="C80">
-        <v>0.08364339167448422</v>
+        <v>-0.001097733173904636</v>
       </c>
       <c r="D80">
-        <v>-0.004934280447867087</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05718108079808382</v>
+      </c>
+      <c r="E80">
+        <v>0.03685644286894136</v>
+      </c>
+      <c r="F80">
+        <v>0.02393259319427234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.04426925542312284</v>
+        <v>0.1216759782107151</v>
       </c>
       <c r="C81">
-        <v>0.1378814471894348</v>
+        <v>0.03144109279082884</v>
       </c>
       <c r="D81">
-        <v>-0.01091007816897347</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01644697969062778</v>
+      </c>
+      <c r="E81">
+        <v>0.05770853182217956</v>
+      </c>
+      <c r="F81">
+        <v>-0.01574577980947737</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.03945083970726394</v>
+        <v>0.1664668226291282</v>
       </c>
       <c r="C82">
-        <v>0.1651124099978031</v>
+        <v>0.02382987402064582</v>
       </c>
       <c r="D82">
-        <v>-0.02529941608824787</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.00430495054935278</v>
+      </c>
+      <c r="E82">
+        <v>0.02791271546729353</v>
+      </c>
+      <c r="F82">
+        <v>-0.07907092115527219</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01726514205796209</v>
+        <v>0.06066634931326477</v>
       </c>
       <c r="C83">
-        <v>0.07178274530980198</v>
+        <v>0.002803906577088181</v>
       </c>
       <c r="D83">
-        <v>0.005067769375789934</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05043864109459524</v>
+      </c>
+      <c r="E83">
+        <v>0.004735487149231377</v>
+      </c>
+      <c r="F83">
+        <v>0.03177130534701887</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02723476849214517</v>
+        <v>0.05811999419514147</v>
       </c>
       <c r="C84">
-        <v>0.07863978246173736</v>
+        <v>0.01074561872316853</v>
       </c>
       <c r="D84">
-        <v>0.01358744435324789</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.06466703069457699</v>
+      </c>
+      <c r="E84">
+        <v>0.006928967323465259</v>
+      </c>
+      <c r="F84">
+        <v>-0.003609690180915032</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.03888979721973927</v>
+        <v>0.1366340736385762</v>
       </c>
       <c r="C85">
-        <v>0.118781837363905</v>
+        <v>0.02740043070563561</v>
       </c>
       <c r="D85">
-        <v>-0.01239562111910219</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01145459787879544</v>
+      </c>
+      <c r="E85">
+        <v>0.03876429718915779</v>
+      </c>
+      <c r="F85">
+        <v>-0.04471439762996381</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.01229575947059825</v>
+        <v>0.09373847116493128</v>
       </c>
       <c r="C86">
-        <v>0.09747656211263014</v>
+        <v>-0.006508614149667137</v>
       </c>
       <c r="D86">
-        <v>-0.2378662489071279</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04142630036847035</v>
+      </c>
+      <c r="E86">
+        <v>0.2113353191378919</v>
+      </c>
+      <c r="F86">
+        <v>0.9086840464371236</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.0393184259480155</v>
+        <v>0.09678970363317005</v>
       </c>
       <c r="C87">
-        <v>0.1023552048360221</v>
+        <v>0.01935005415426323</v>
       </c>
       <c r="D87">
-        <v>0.05945259697897189</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09652558713097893</v>
+      </c>
+      <c r="E87">
+        <v>-0.0505270489165013</v>
+      </c>
+      <c r="F87">
+        <v>-0.05373338611313194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01384171970822142</v>
+        <v>0.06083748116047067</v>
       </c>
       <c r="C88">
-        <v>0.06031243116782203</v>
+        <v>0.002036875798783411</v>
       </c>
       <c r="D88">
-        <v>0.008932182088483774</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04988807626840491</v>
+      </c>
+      <c r="E88">
+        <v>0.02459000610234415</v>
+      </c>
+      <c r="F88">
+        <v>-0.01181365069802034</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.00233420142591129</v>
+        <v>0.1347243819280753</v>
       </c>
       <c r="C89">
-        <v>0.04961332768672504</v>
+        <v>0.01336791738493656</v>
       </c>
       <c r="D89">
-        <v>-0.2576938215323362</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2523146282890797</v>
+      </c>
+      <c r="E89">
+        <v>-0.0905664229146222</v>
+      </c>
+      <c r="F89">
+        <v>0.007671103048109494</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.01955566954417411</v>
+        <v>0.1502109773807619</v>
       </c>
       <c r="C90">
-        <v>0.03373464954305505</v>
+        <v>0.03184925513586058</v>
       </c>
       <c r="D90">
-        <v>-0.2247259919636918</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.268735076611659</v>
+      </c>
+      <c r="E90">
+        <v>-0.1111262528217698</v>
+      </c>
+      <c r="F90">
+        <v>0.001393601966769393</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.02475681631556466</v>
+        <v>0.1203676727801278</v>
       </c>
       <c r="C91">
-        <v>0.1006606843214436</v>
+        <v>0.0185419347819147</v>
       </c>
       <c r="D91">
-        <v>-0.02476047691033325</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01247974654469502</v>
+      </c>
+      <c r="E91">
+        <v>0.05626219851600639</v>
+      </c>
+      <c r="F91">
+        <v>0.003379485256143616</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.004925814025210888</v>
+        <v>0.1479050986947082</v>
       </c>
       <c r="C92">
-        <v>0.04661792148589434</v>
+        <v>0.02351085940166352</v>
       </c>
       <c r="D92">
-        <v>-0.2446080367161459</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2911176006062848</v>
+      </c>
+      <c r="E92">
+        <v>-0.09980762332626915</v>
+      </c>
+      <c r="F92">
+        <v>0.01258362188764389</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01679321099496739</v>
+        <v>0.1523088125403338</v>
       </c>
       <c r="C93">
-        <v>0.04772961518786938</v>
+        <v>0.02785072566422324</v>
       </c>
       <c r="D93">
-        <v>-0.2476817760308731</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2690243083581263</v>
+      </c>
+      <c r="E93">
+        <v>-0.07668531594636309</v>
+      </c>
+      <c r="F93">
+        <v>-0.00299316537260867</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.04147274279391006</v>
+        <v>0.1310802080514204</v>
       </c>
       <c r="C94">
-        <v>0.149283168798771</v>
+        <v>0.0244049450271433</v>
       </c>
       <c r="D94">
-        <v>-0.01032255192255237</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04269831580477276</v>
+      </c>
+      <c r="E94">
+        <v>0.05751029127676958</v>
+      </c>
+      <c r="F94">
+        <v>-0.03535970300155029</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.02661526010936841</v>
+        <v>0.1273354729116041</v>
       </c>
       <c r="C95">
-        <v>0.1424571632841691</v>
+        <v>0.003442279653193612</v>
       </c>
       <c r="D95">
-        <v>0.02394652690608864</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09173357755642468</v>
+      </c>
+      <c r="E95">
+        <v>0.04653097109035544</v>
+      </c>
+      <c r="F95">
+        <v>0.006953359025818484</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.973943708056665</v>
+        <v>0.1043317726823448</v>
       </c>
       <c r="C96">
-        <v>0.207886370201483</v>
+        <v>-0.9877174374577209</v>
       </c>
       <c r="D96">
-        <v>-0.02175690806734319</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04812856741385828</v>
+      </c>
+      <c r="E96">
+        <v>0.05555823295997984</v>
+      </c>
+      <c r="F96">
+        <v>-0.04214835971051541</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.005683699176700423</v>
+        <v>0.1932438316571629</v>
       </c>
       <c r="C97">
-        <v>0.1598141186020865</v>
+        <v>-0.007734136084214718</v>
       </c>
       <c r="D97">
-        <v>-0.09419403426952355</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01774941323227833</v>
+      </c>
+      <c r="E97">
+        <v>0.01775298424953039</v>
+      </c>
+      <c r="F97">
+        <v>0.09147098593681076</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.02793017039086762</v>
+        <v>0.2043087442777171</v>
       </c>
       <c r="C98">
-        <v>0.1993298408252848</v>
+        <v>0.00675533536722815</v>
       </c>
       <c r="D98">
-        <v>-0.03241986970397622</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01354222182731378</v>
+      </c>
+      <c r="E98">
+        <v>-0.08390132217170838</v>
+      </c>
+      <c r="F98">
+        <v>0.09352653836226844</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.005446876985465705</v>
+        <v>0.05548152741999765</v>
       </c>
       <c r="C99">
-        <v>0.06410028969922721</v>
+        <v>-0.00504054766527317</v>
       </c>
       <c r="D99">
-        <v>-0.02451287036220279</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04000329031407186</v>
+      </c>
+      <c r="E99">
+        <v>0.02324915571607867</v>
+      </c>
+      <c r="F99">
+        <v>-0.001253973487567759</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.008155497064769918</v>
+        <v>0.1248866320731043</v>
       </c>
       <c r="C100">
-        <v>0.1913981103110316</v>
+        <v>-0.05500665049906422</v>
       </c>
       <c r="D100">
-        <v>0.6599635928200767</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3424164839717465</v>
+      </c>
+      <c r="E100">
+        <v>-0.8902387770907664</v>
+      </c>
+      <c r="F100">
+        <v>0.1400211126497752</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01310211664929829</v>
+        <v>0.027636759016308</v>
       </c>
       <c r="C101">
-        <v>0.02820801526544729</v>
+        <v>0.008107385902153206</v>
       </c>
       <c r="D101">
-        <v>-0.008684831035605942</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03162451574206308</v>
+      </c>
+      <c r="E101">
+        <v>0.01059416097813622</v>
+      </c>
+      <c r="F101">
+        <v>0.01183092941734473</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
